--- a/excel/shanRoyale2022Data.xlsx
+++ b/excel/shanRoyale2022Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9F14F-E393-431A-A8C9-C40907DA77EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DED5DB-251B-4A62-9779-3BD552F2835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>VIGNESHWAR</t>
+  </si>
+  <si>
+    <t>ddannyiel</t>
+  </si>
+  <si>
+    <t>DANIEL LIM</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +552,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -605,6 +611,41 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -615,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB414-4D8E-4715-81F5-BB9EBEC690BA}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -763,6 +804,41 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B16F35-1C91-4BD6-99C6-D356DCD5059C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
